--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Spon2-Itgb2.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Spon2-Itgb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,16 +82,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Spon2</t>
   </si>
   <si>
     <t>Itgb2</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.584981976284374</v>
+        <v>0.6689560000000001</v>
       </c>
       <c r="H2">
-        <v>0.584981976284374</v>
+        <v>2.006868</v>
       </c>
       <c r="I2">
-        <v>0.1330079193471388</v>
+        <v>0.1299255090071103</v>
       </c>
       <c r="J2">
-        <v>0.1330079193471388</v>
+        <v>0.1299255090071103</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>131.751028136148</v>
+        <v>0.2827783333333333</v>
       </c>
       <c r="N2">
-        <v>131.751028136148</v>
+        <v>0.848335</v>
       </c>
       <c r="O2">
-        <v>0.4909884401023307</v>
+        <v>0.00101236699965667</v>
       </c>
       <c r="P2">
-        <v>0.4909884401023307</v>
+        <v>0.00101236699965667</v>
       </c>
       <c r="Q2">
-        <v>77.07197681658201</v>
+        <v>0.1891662627533333</v>
       </c>
       <c r="R2">
-        <v>77.07197681658201</v>
+        <v>1.70249636478</v>
       </c>
       <c r="S2">
-        <v>0.06530535084150829</v>
+        <v>0.0001315322977323939</v>
       </c>
       <c r="T2">
-        <v>0.06530535084150829</v>
+        <v>0.0001315322977323938</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,185 +587,1487 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.584981976284374</v>
+        <v>0.6689560000000001</v>
       </c>
       <c r="H3">
-        <v>0.584981976284374</v>
+        <v>2.006868</v>
       </c>
       <c r="I3">
-        <v>0.1330079193471388</v>
+        <v>0.1299255090071103</v>
       </c>
       <c r="J3">
-        <v>0.1330079193471388</v>
+        <v>0.1299255090071103</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>136.587322373059</v>
+        <v>0.03123033333333333</v>
       </c>
       <c r="N3">
-        <v>136.587322373059</v>
+        <v>0.093691</v>
       </c>
       <c r="O3">
-        <v>0.5090115598976694</v>
+        <v>0.0001118068646994796</v>
       </c>
       <c r="P3">
-        <v>0.5090115598976694</v>
+        <v>0.0001118068646994796</v>
       </c>
       <c r="Q3">
-        <v>79.90112177718295</v>
+        <v>0.02089171886533334</v>
       </c>
       <c r="R3">
-        <v>79.90112177718295</v>
+        <v>0.188025469788</v>
       </c>
       <c r="S3">
-        <v>0.06770256850563053</v>
+        <v>1.4526563806569E-05</v>
       </c>
       <c r="T3">
-        <v>0.06770256850563053</v>
+        <v>1.4526563806569E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.81311686742149</v>
+        <v>0.6689560000000001</v>
       </c>
       <c r="H4">
-        <v>3.81311686742149</v>
+        <v>2.006868</v>
       </c>
       <c r="I4">
-        <v>0.8669920806528612</v>
+        <v>0.1299255090071103</v>
       </c>
       <c r="J4">
-        <v>0.8669920806528612</v>
+        <v>0.1299255090071103</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>131.751028136148</v>
+        <v>133.2267966666667</v>
       </c>
       <c r="N4">
-        <v>131.751028136148</v>
+        <v>399.68039</v>
       </c>
       <c r="O4">
-        <v>0.4909884401023307</v>
+        <v>0.4769616215833459</v>
       </c>
       <c r="P4">
-        <v>0.4909884401023307</v>
+        <v>0.4769616215833458</v>
       </c>
       <c r="Q4">
-        <v>502.3820676860693</v>
+        <v>89.12286499094668</v>
       </c>
       <c r="R4">
-        <v>502.3820676860693</v>
+        <v>802.1057849185202</v>
       </c>
       <c r="S4">
-        <v>0.4256830892608224</v>
+        <v>0.06196948146107294</v>
       </c>
       <c r="T4">
-        <v>0.4256830892608224</v>
+        <v>0.06196948146107292</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0.6689560000000001</v>
+      </c>
+      <c r="H5">
+        <v>2.006868</v>
+      </c>
+      <c r="I5">
+        <v>0.1299255090071103</v>
+      </c>
+      <c r="J5">
+        <v>0.1299255090071103</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>145.729604</v>
+      </c>
+      <c r="N5">
+        <v>437.188812</v>
+      </c>
+      <c r="O5">
+        <v>0.5217225811594522</v>
+      </c>
+      <c r="P5">
+        <v>0.5217225811594521</v>
+      </c>
+      <c r="Q5">
+        <v>97.48669297342401</v>
+      </c>
+      <c r="R5">
+        <v>877.3802367608162</v>
+      </c>
+      <c r="S5">
+        <v>0.06778507191764524</v>
+      </c>
+      <c r="T5">
+        <v>0.06778507191764523</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.6689560000000001</v>
+      </c>
+      <c r="H6">
+        <v>2.006868</v>
+      </c>
+      <c r="I6">
+        <v>0.1299255090071103</v>
+      </c>
+      <c r="J6">
+        <v>0.1299255090071103</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6">
+        <v>0.053525</v>
+      </c>
+      <c r="N6">
+        <v>0.160575</v>
+      </c>
+      <c r="O6">
+        <v>0.000191623392845833</v>
+      </c>
+      <c r="P6">
+        <v>0.000191623392845833</v>
+      </c>
+      <c r="Q6">
+        <v>0.0358058699</v>
+      </c>
+      <c r="R6">
+        <v>0.3222528291</v>
+      </c>
+      <c r="S6">
+        <v>2.489676685316431E-05</v>
+      </c>
+      <c r="T6">
+        <v>2.489676685316431E-05</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
         <v>21</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>3.996041333333333</v>
+      </c>
+      <c r="H7">
+        <v>11.988124</v>
+      </c>
+      <c r="I7">
+        <v>0.776116372746167</v>
+      </c>
+      <c r="J7">
+        <v>0.7761163727461668</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.2827783333333333</v>
+      </c>
+      <c r="N7">
+        <v>0.848335</v>
+      </c>
+      <c r="O7">
+        <v>0.00101236699965667</v>
+      </c>
+      <c r="P7">
+        <v>0.00101236699965667</v>
+      </c>
+      <c r="Q7">
+        <v>1.129993908171111</v>
+      </c>
+      <c r="R7">
+        <v>10.16994517354</v>
+      </c>
+      <c r="S7">
+        <v>0.0007857146036614548</v>
+      </c>
+      <c r="T7">
+        <v>0.0007857146036614544</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>3.996041333333333</v>
+      </c>
+      <c r="H8">
+        <v>11.988124</v>
+      </c>
+      <c r="I8">
+        <v>0.776116372746167</v>
+      </c>
+      <c r="J8">
+        <v>0.7761163727461668</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.03123033333333333</v>
+      </c>
+      <c r="N8">
+        <v>0.093691</v>
+      </c>
+      <c r="O8">
+        <v>0.0001118068646994796</v>
+      </c>
+      <c r="P8">
+        <v>0.0001118068646994796</v>
+      </c>
+      <c r="Q8">
+        <v>0.1247977028537778</v>
+      </c>
+      <c r="R8">
+        <v>1.123179325684</v>
+      </c>
+      <c r="S8">
+        <v>8.67751382786816E-05</v>
+      </c>
+      <c r="T8">
+        <v>8.677513827868158E-05</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>3.996041333333333</v>
+      </c>
+      <c r="H9">
+        <v>11.988124</v>
+      </c>
+      <c r="I9">
+        <v>0.776116372746167</v>
+      </c>
+      <c r="J9">
+        <v>0.7761163727461668</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>133.2267966666667</v>
+      </c>
+      <c r="N9">
+        <v>399.68039</v>
+      </c>
+      <c r="O9">
+        <v>0.4769616215833459</v>
+      </c>
+      <c r="P9">
+        <v>0.4769616215833458</v>
+      </c>
+      <c r="Q9">
+        <v>532.3797861875955</v>
+      </c>
+      <c r="R9">
+        <v>4791.41807568836</v>
+      </c>
+      <c r="S9">
+        <v>0.3701777236823963</v>
+      </c>
+      <c r="T9">
+        <v>0.3701777236823962</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>3.81311686742149</v>
-      </c>
-      <c r="H5">
-        <v>3.81311686742149</v>
-      </c>
-      <c r="I5">
-        <v>0.8669920806528612</v>
-      </c>
-      <c r="J5">
-        <v>0.8669920806528612</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>136.587322373059</v>
-      </c>
-      <c r="N5">
-        <v>136.587322373059</v>
-      </c>
-      <c r="O5">
-        <v>0.5090115598976694</v>
-      </c>
-      <c r="P5">
-        <v>0.5090115598976694</v>
-      </c>
-      <c r="Q5">
-        <v>520.823422816648</v>
-      </c>
-      <c r="R5">
-        <v>520.823422816648</v>
-      </c>
-      <c r="S5">
-        <v>0.4413089913920389</v>
-      </c>
-      <c r="T5">
-        <v>0.4413089913920389</v>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>3.996041333333333</v>
+      </c>
+      <c r="H10">
+        <v>11.988124</v>
+      </c>
+      <c r="I10">
+        <v>0.776116372746167</v>
+      </c>
+      <c r="J10">
+        <v>0.7761163727461668</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>145.729604</v>
+      </c>
+      <c r="N10">
+        <v>437.188812</v>
+      </c>
+      <c r="O10">
+        <v>0.5217225811594522</v>
+      </c>
+      <c r="P10">
+        <v>0.5217225811594521</v>
+      </c>
+      <c r="Q10">
+        <v>582.3415210742986</v>
+      </c>
+      <c r="R10">
+        <v>5241.073689668688</v>
+      </c>
+      <c r="S10">
+        <v>0.4049174372692418</v>
+      </c>
+      <c r="T10">
+        <v>0.4049174372692416</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>3.996041333333333</v>
+      </c>
+      <c r="H11">
+        <v>11.988124</v>
+      </c>
+      <c r="I11">
+        <v>0.776116372746167</v>
+      </c>
+      <c r="J11">
+        <v>0.7761163727461668</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.053525</v>
+      </c>
+      <c r="N11">
+        <v>0.160575</v>
+      </c>
+      <c r="O11">
+        <v>0.000191623392845833</v>
+      </c>
+      <c r="P11">
+        <v>0.000191623392845833</v>
+      </c>
+      <c r="Q11">
+        <v>0.2138881123666666</v>
+      </c>
+      <c r="R11">
+        <v>1.9249930113</v>
+      </c>
+      <c r="S11">
+        <v>0.0001487220525888218</v>
+      </c>
+      <c r="T11">
+        <v>0.0001487220525888217</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.1507453333333333</v>
+      </c>
+      <c r="H12">
+        <v>0.452236</v>
+      </c>
+      <c r="I12">
+        <v>0.02927795574563923</v>
+      </c>
+      <c r="J12">
+        <v>0.02927795574563923</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.2827783333333333</v>
+      </c>
+      <c r="N12">
+        <v>0.848335</v>
+      </c>
+      <c r="O12">
+        <v>0.00101236699965667</v>
+      </c>
+      <c r="P12">
+        <v>0.00101236699965667</v>
+      </c>
+      <c r="Q12">
+        <v>0.04262751411777777</v>
+      </c>
+      <c r="R12">
+        <v>0.3836476270599999</v>
+      </c>
+      <c r="S12">
+        <v>2.964003621429355E-05</v>
+      </c>
+      <c r="T12">
+        <v>2.964003621429354E-05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.1507453333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.452236</v>
+      </c>
+      <c r="I13">
+        <v>0.02927795574563923</v>
+      </c>
+      <c r="J13">
+        <v>0.02927795574563923</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.03123033333333333</v>
+      </c>
+      <c r="N13">
+        <v>0.093691</v>
+      </c>
+      <c r="O13">
+        <v>0.0001118068646994796</v>
+      </c>
+      <c r="P13">
+        <v>0.0001118068646994796</v>
+      </c>
+      <c r="Q13">
+        <v>0.004707827008444443</v>
+      </c>
+      <c r="R13">
+        <v>0.042370443076</v>
+      </c>
+      <c r="S13">
+        <v>3.273476436730038E-06</v>
+      </c>
+      <c r="T13">
+        <v>3.273476436730038E-06</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.1507453333333333</v>
+      </c>
+      <c r="H14">
+        <v>0.452236</v>
+      </c>
+      <c r="I14">
+        <v>0.02927795574563923</v>
+      </c>
+      <c r="J14">
+        <v>0.02927795574563923</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>133.2267966666667</v>
+      </c>
+      <c r="N14">
+        <v>399.68039</v>
+      </c>
+      <c r="O14">
+        <v>0.4769616215833459</v>
+      </c>
+      <c r="P14">
+        <v>0.4769616215833458</v>
+      </c>
+      <c r="Q14">
+        <v>20.08331787244889</v>
+      </c>
+      <c r="R14">
+        <v>180.74986085204</v>
+      </c>
+      <c r="S14">
+        <v>0.01396446124908553</v>
+      </c>
+      <c r="T14">
+        <v>0.01396446124908552</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.1507453333333333</v>
+      </c>
+      <c r="H15">
+        <v>0.452236</v>
+      </c>
+      <c r="I15">
+        <v>0.02927795574563923</v>
+      </c>
+      <c r="J15">
+        <v>0.02927795574563923</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>145.729604</v>
+      </c>
+      <c r="N15">
+        <v>437.188812</v>
+      </c>
+      <c r="O15">
+        <v>0.5217225811594522</v>
+      </c>
+      <c r="P15">
+        <v>0.5217225811594521</v>
+      </c>
+      <c r="Q15">
+        <v>21.96805773151466</v>
+      </c>
+      <c r="R15">
+        <v>197.712519583632</v>
+      </c>
+      <c r="S15">
+        <v>0.01527497064268712</v>
+      </c>
+      <c r="T15">
+        <v>0.01527497064268711</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.1507453333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.452236</v>
+      </c>
+      <c r="I16">
+        <v>0.02927795574563923</v>
+      </c>
+      <c r="J16">
+        <v>0.02927795574563923</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.053525</v>
+      </c>
+      <c r="N16">
+        <v>0.160575</v>
+      </c>
+      <c r="O16">
+        <v>0.000191623392845833</v>
+      </c>
+      <c r="P16">
+        <v>0.000191623392845833</v>
+      </c>
+      <c r="Q16">
+        <v>0.008068643966666665</v>
+      </c>
+      <c r="R16">
+        <v>0.07261779569999999</v>
+      </c>
+      <c r="S16">
+        <v>5.610341215569541E-06</v>
+      </c>
+      <c r="T16">
+        <v>5.61034121556954E-06</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.06722566666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.201677</v>
+      </c>
+      <c r="I17">
+        <v>0.01305665688028658</v>
+      </c>
+      <c r="J17">
+        <v>0.01305665688028658</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.2827783333333333</v>
+      </c>
+      <c r="N17">
+        <v>0.848335</v>
+      </c>
+      <c r="O17">
+        <v>0.00101236699965667</v>
+      </c>
+      <c r="P17">
+        <v>0.00101236699965667</v>
+      </c>
+      <c r="Q17">
+        <v>0.01900996197722222</v>
+      </c>
+      <c r="R17">
+        <v>0.171089657795</v>
+      </c>
+      <c r="S17">
+        <v>1.321812855144235E-05</v>
+      </c>
+      <c r="T17">
+        <v>1.321812855144234E-05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.06722566666666667</v>
+      </c>
+      <c r="H18">
+        <v>0.201677</v>
+      </c>
+      <c r="I18">
+        <v>0.01305665688028658</v>
+      </c>
+      <c r="J18">
+        <v>0.01305665688028658</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.03123033333333333</v>
+      </c>
+      <c r="N18">
+        <v>0.093691</v>
+      </c>
+      <c r="O18">
+        <v>0.0001118068646994796</v>
+      </c>
+      <c r="P18">
+        <v>0.0001118068646994796</v>
+      </c>
+      <c r="Q18">
+        <v>0.002099479978555556</v>
+      </c>
+      <c r="R18">
+        <v>0.018895319807</v>
+      </c>
+      <c r="S18">
+        <v>1.459823869241732E-06</v>
+      </c>
+      <c r="T18">
+        <v>1.459823869241732E-06</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.06722566666666667</v>
+      </c>
+      <c r="H19">
+        <v>0.201677</v>
+      </c>
+      <c r="I19">
+        <v>0.01305665688028658</v>
+      </c>
+      <c r="J19">
+        <v>0.01305665688028658</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>133.2267966666667</v>
+      </c>
+      <c r="N19">
+        <v>399.68039</v>
+      </c>
+      <c r="O19">
+        <v>0.4769616215833459</v>
+      </c>
+      <c r="P19">
+        <v>0.4769616215833458</v>
+      </c>
+      <c r="Q19">
+        <v>8.956260223781111</v>
+      </c>
+      <c r="R19">
+        <v>80.60634201402999</v>
+      </c>
+      <c r="S19">
+        <v>0.00622752423807884</v>
+      </c>
+      <c r="T19">
+        <v>0.006227524238078837</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.06722566666666667</v>
+      </c>
+      <c r="H20">
+        <v>0.201677</v>
+      </c>
+      <c r="I20">
+        <v>0.01305665688028658</v>
+      </c>
+      <c r="J20">
+        <v>0.01305665688028658</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>145.729604</v>
+      </c>
+      <c r="N20">
+        <v>437.188812</v>
+      </c>
+      <c r="O20">
+        <v>0.5217225811594522</v>
+      </c>
+      <c r="P20">
+        <v>0.5217225811594521</v>
+      </c>
+      <c r="Q20">
+        <v>9.796769781969333</v>
+      </c>
+      <c r="R20">
+        <v>88.170928037724</v>
+      </c>
+      <c r="S20">
+        <v>0.006811952728896438</v>
+      </c>
+      <c r="T20">
+        <v>0.006811952728896436</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.06722566666666667</v>
+      </c>
+      <c r="H21">
+        <v>0.201677</v>
+      </c>
+      <c r="I21">
+        <v>0.01305665688028658</v>
+      </c>
+      <c r="J21">
+        <v>0.01305665688028658</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M21">
+        <v>0.053525</v>
+      </c>
+      <c r="N21">
+        <v>0.160575</v>
+      </c>
+      <c r="O21">
+        <v>0.000191623392845833</v>
+      </c>
+      <c r="P21">
+        <v>0.000191623392845833</v>
+      </c>
+      <c r="Q21">
+        <v>0.003598253808333333</v>
+      </c>
+      <c r="R21">
+        <v>0.032384284275</v>
+      </c>
+      <c r="S21">
+        <v>2.501960890624405E-06</v>
+      </c>
+      <c r="T21">
+        <v>2.501960890624404E-06</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>0.2657973333333333</v>
+      </c>
+      <c r="H22">
+        <v>0.797392</v>
+      </c>
+      <c r="I22">
+        <v>0.05162350562079702</v>
+      </c>
+      <c r="J22">
+        <v>0.05162350562079701</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M22">
+        <v>0.2827783333333333</v>
+      </c>
+      <c r="N22">
+        <v>0.848335</v>
+      </c>
+      <c r="O22">
+        <v>0.00101236699965667</v>
+      </c>
+      <c r="P22">
+        <v>0.00101236699965667</v>
+      </c>
+      <c r="Q22">
+        <v>0.07516172692444444</v>
+      </c>
+      <c r="R22">
+        <v>0.6764555423199999</v>
+      </c>
+      <c r="S22">
+        <v>5.226193349708551E-05</v>
+      </c>
+      <c r="T22">
+        <v>5.22619334970855E-05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>0.2657973333333333</v>
+      </c>
+      <c r="H23">
+        <v>0.797392</v>
+      </c>
+      <c r="I23">
+        <v>0.05162350562079702</v>
+      </c>
+      <c r="J23">
+        <v>0.05162350562079701</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M23">
+        <v>0.03123033333333333</v>
+      </c>
+      <c r="N23">
+        <v>0.093691</v>
+      </c>
+      <c r="O23">
+        <v>0.0001118068646994796</v>
+      </c>
+      <c r="P23">
+        <v>0.0001118068646994796</v>
+      </c>
+      <c r="Q23">
+        <v>0.008300939319111111</v>
+      </c>
+      <c r="R23">
+        <v>0.07470845387199999</v>
+      </c>
+      <c r="S23">
+        <v>5.771862308257279E-06</v>
+      </c>
+      <c r="T23">
+        <v>5.771862308257278E-06</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>0.2657973333333333</v>
+      </c>
+      <c r="H24">
+        <v>0.797392</v>
+      </c>
+      <c r="I24">
+        <v>0.05162350562079702</v>
+      </c>
+      <c r="J24">
+        <v>0.05162350562079701</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>133.2267966666667</v>
+      </c>
+      <c r="N24">
+        <v>399.68039</v>
+      </c>
+      <c r="O24">
+        <v>0.4769616215833459</v>
+      </c>
+      <c r="P24">
+        <v>0.4769616215833458</v>
+      </c>
+      <c r="Q24">
+        <v>35.41132728254222</v>
+      </c>
+      <c r="R24">
+        <v>318.70194554288</v>
+      </c>
+      <c r="S24">
+        <v>0.02462243095271232</v>
+      </c>
+      <c r="T24">
+        <v>0.02462243095271231</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.2657973333333333</v>
+      </c>
+      <c r="H25">
+        <v>0.797392</v>
+      </c>
+      <c r="I25">
+        <v>0.05162350562079702</v>
+      </c>
+      <c r="J25">
+        <v>0.05162350562079701</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>145.729604</v>
+      </c>
+      <c r="N25">
+        <v>437.188812</v>
+      </c>
+      <c r="O25">
+        <v>0.5217225811594522</v>
+      </c>
+      <c r="P25">
+        <v>0.5217225811594521</v>
+      </c>
+      <c r="Q25">
+        <v>38.73454013092267</v>
+      </c>
+      <c r="R25">
+        <v>348.610861178304</v>
+      </c>
+      <c r="S25">
+        <v>0.02693314860098171</v>
+      </c>
+      <c r="T25">
+        <v>0.0269331486009817</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G26">
+        <v>0.2657973333333333</v>
+      </c>
+      <c r="H26">
+        <v>0.797392</v>
+      </c>
+      <c r="I26">
+        <v>0.05162350562079702</v>
+      </c>
+      <c r="J26">
+        <v>0.05162350562079701</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M26">
+        <v>0.053525</v>
+      </c>
+      <c r="N26">
+        <v>0.160575</v>
+      </c>
+      <c r="O26">
+        <v>0.000191623392845833</v>
+      </c>
+      <c r="P26">
+        <v>0.000191623392845833</v>
+      </c>
+      <c r="Q26">
+        <v>0.01422680226666666</v>
+      </c>
+      <c r="R26">
+        <v>0.1280412204</v>
+      </c>
+      <c r="S26">
+        <v>9.892271297653057E-06</v>
+      </c>
+      <c r="T26">
+        <v>9.892271297653055E-06</v>
       </c>
     </row>
   </sheetData>
